--- a/all_types_model_on_all_data.xlsx
+++ b/all_types_model_on_all_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -973,6 +973,696 @@
         <v>0.8695121951219512</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.9602649006622517</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.5052264808362369</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.6621004566210046</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.8390450928381964</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.8275862068965517</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.7942847913309851</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.9926470588235294</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.4703832752613241</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.6382978723404256</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.5647641728942543</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.5925925925925926</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.5497300557541522</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.1777003484320558</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.3017751479289941</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.9926470588235294</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.4703832752613241</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.6382978723404256</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.7930315500685872</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.8222222222222222</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.8059729676008747</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.9856115107913669</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.4773519163763066</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.6431924882629109</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.8262038784679885</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.8175182481751825</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.7853981164492957</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.003484320557491289</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.006944444444444445</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.9830508474576272</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.4041811846689896</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.5728395061728395</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.8644932564677413</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.9224137931034483</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.8908448387025056</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.02787456445993031</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.05423728813559322</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.10801393728223</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.1949685534591195</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.3101045296167247</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.473404255319149</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.9347378277153557</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.9550561797752809</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.9442492075035602</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.9595959595959596</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.6620209059233449</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.7835051546391751</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.7668657036613273</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.8210526315789474</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.7795512705207996</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.9831932773109243</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.4076655052264808</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.5763546798029556</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.7977207977207976</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.8632478632478633</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.8209254347185383</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.9818181818181818</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.3763066202090593</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.544080604534005</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.7760015117157975</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.8703703703703703</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.8180671374552375</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.9912280701754386</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.3937282229965157</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.5635910224438903</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.8999653437074423</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.9469026548672567</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.9220027792873019</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.3449477351916376</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.5116279069767442</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.9726295210166177</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.9696969696969697</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.961376476630714</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.9926470588235294</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.4703832752613241</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.6382978723404256</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.8421827990455442</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.8740740740740741</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.8505437393158696</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.3658536585365854</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.9542240084439573</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.9714285714285714</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.9618557093804618</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.9514563106796117</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.3414634146341464</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.5025641025641026</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.9517161410018553</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.9693877551020408</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.9598179889136639</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.3449477351916376</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.5116279069767442</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.9612794612794612</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.9696969696969697</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.9634021373151809</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.9632352941176471</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.4564459930313589</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.6193853427895981</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.8932685634975711</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.9389312977099237</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.9142345573748333</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.9791666666666666</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.4912891986062718</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.654292343387471</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.9237936309275483</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.9290780141843972</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.9137618832050701</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.1951219512195122</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.326530612244898</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.9700598802395209</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.5644599303135889</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.7136563876651981</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.8161990273101384</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.8209876543209876</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.7737659394478207</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.9595959595959596</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.3310104529616725</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.4922279792746114</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.7743540669856459</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.7972117794486214</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.9641025641025641</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.6550522648083623</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.7800829875518671</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.7637465567172396</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.8085106382978723</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.770209541463082</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.9528795811518325</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.6341463414634146</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.7615062761506277</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.7204545454545455</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.8021978021978022</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.74688900842747</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.967032967032967</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.6132404181184669</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.7505330490405117</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.8408601970283698</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.8636363636363636</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.8506374794037131</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.9893617021276596</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.3240418118466899</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.4881889763779528</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.9596774193548387</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.978494623655914</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.9684587813620071</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.9745222929936306</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.5331010452961672</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.6891891891891893</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.8700351935646053</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.9019607843137255</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.881890241589866</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.9754098360655737</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.4146341463414634</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.5819070904645476</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.9038515406162465</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.9327731092436975</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.9145086178929853</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
